--- a/results/dfcluster-rank.xlsx
+++ b/results/dfcluster-rank.xlsx
@@ -1,21 +1,344 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E01AF4-22BB-4E1E-9650-9BCF642C1D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ptap</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>pspr</t>
+  </si>
+  <si>
+    <t>uspr</t>
+  </si>
+  <si>
+    <t>pwel</t>
+  </si>
+  <si>
+    <t>uwel</t>
+  </si>
+  <si>
+    <t>surw</t>
+  </si>
+  <si>
+    <t>tles</t>
+  </si>
+  <si>
+    <t>tmor</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>phom</t>
+  </si>
+  <si>
+    <t>imws</t>
+  </si>
+  <si>
+    <t>pipy</t>
+  </si>
+  <si>
+    <t>truc</t>
+  </si>
+  <si>
+    <t>bott</t>
+  </si>
+  <si>
+    <t>uiws</t>
+  </si>
+  <si>
+    <t>othw</t>
+  </si>
+  <si>
+    <t>iwsp</t>
+  </si>
+  <si>
+    <t>basw</t>
+  </si>
+  <si>
+    <t>liws</t>
+  </si>
+  <si>
+    <t>watp</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>distToCentroid</t>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo Democratic Republic</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +386,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +472,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +524,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,156 +717,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ptap</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bore</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pspr</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>uspr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pwel</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>uwel</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>surw</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tles</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tmor</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>phom</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>imws</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pipy</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>truc</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ctan</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bott</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>uiws</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>othw</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>iwsp</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>basw</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>liws</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>watp</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>norm</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>distToCentroid</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Afghanistan</t>
-        </is>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>14.2</v>
       </c>
       <c r="C2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D2">
         <v>4.7</v>
@@ -520,13 +835,13 @@
         <v>45.2</v>
       </c>
       <c r="J2">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K2">
         <v>0.4</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M2">
         <v>71.2</v>
@@ -538,7 +853,7 @@
         <v>1.5</v>
       </c>
       <c r="P2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q2">
         <v>0.2</v>
@@ -562,20 +877,18 @@
         <v>45.3</v>
       </c>
       <c r="X2">
-        <v>90.57582458912533</v>
+        <v>90.575824589125332</v>
       </c>
       <c r="Y2">
-        <v>33.61995347151827</v>
+        <v>33.619953471518272</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2.4</v>
@@ -590,7 +903,7 @@
         <v>0.8</v>
       </c>
       <c r="F3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -602,7 +915,7 @@
         <v>20.6</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -611,7 +924,7 @@
         <v>48.8</v>
       </c>
       <c r="M3">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="N3">
         <v>5.2</v>
@@ -623,7 +936,7 @@
         <v>0.2</v>
       </c>
       <c r="Q3">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="R3">
         <v>1.6</v>
@@ -641,23 +954,21 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="X3">
         <v>111.874349160118</v>
       </c>
       <c r="Y3">
-        <v>61.41387425583038</v>
+        <v>61.413874255830379</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Angola</t>
-        </is>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>10.3</v>
@@ -675,7 +986,7 @@
         <v>9.1</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -693,13 +1004,13 @@
         <v>4.3</v>
       </c>
       <c r="M4">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="N4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P4">
         <v>4.3</v>
@@ -729,17 +1040,15 @@
         <v>85.89994179276259</v>
       </c>
       <c r="Y4">
-        <v>38.29583626788102</v>
+        <v>38.295836267881022</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -775,7 +1084,7 @@
         <v>88.3</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -796,44 +1105,42 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="U5">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="X5">
-        <v>133.3437662584944</v>
+        <v>133.34376625849441</v>
       </c>
       <c r="Y5">
-        <v>39.94445715745397</v>
+        <v>39.944457157453968</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.5</v>
       </c>
       <c r="C6">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F6">
         <v>6.2</v>
@@ -848,7 +1155,7 @@
         <v>18.7</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -857,7 +1164,7 @@
         <v>34</v>
       </c>
       <c r="M6">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="N6">
         <v>19.7</v>
@@ -875,41 +1182,39 @@
         <v>9.4</v>
       </c>
       <c r="S6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T6">
         <v>71.2</v>
       </c>
       <c r="U6">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V6">
         <v>3.4</v>
       </c>
       <c r="W6">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="X6">
-        <v>99.82404519954098</v>
+        <v>99.824045199540976</v>
       </c>
       <c r="Y6">
-        <v>73.46417821640743</v>
+        <v>73.464178216407433</v>
       </c>
       <c r="Z6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>2.7</v>
       </c>
       <c r="C7">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -954,16 +1259,16 @@
         <v>0.3</v>
       </c>
       <c r="R7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S7">
         <v>0.1</v>
       </c>
       <c r="T7">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="U7">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="V7">
         <v>1.3</v>
@@ -975,17 +1280,15 @@
         <v>132.5451998376403</v>
       </c>
       <c r="Y7">
-        <v>40.74302357830811</v>
+        <v>40.743023578308112</v>
       </c>
       <c r="Z7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1000,7 +1303,7 @@
         <v>1.2</v>
       </c>
       <c r="F8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G8">
         <v>20.8</v>
@@ -1018,7 +1321,7 @@
         <v>0.4</v>
       </c>
       <c r="L8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M8">
         <v>71.7</v>
@@ -1054,20 +1357,18 @@
         <v>37.4</v>
       </c>
       <c r="X8">
-        <v>95.4771700460377</v>
+        <v>95.477170046037699</v>
       </c>
       <c r="Y8">
-        <v>28.71860801460591</v>
+        <v>28.718608014605909</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
       </c>
       <c r="B9">
         <v>5.3</v>
@@ -1136,20 +1437,18 @@
         <v>88</v>
       </c>
       <c r="X9">
-        <v>91.76464460782268</v>
+        <v>91.764644607822675</v>
       </c>
       <c r="Y9">
-        <v>81.52357880812573</v>
+        <v>81.523578808125734</v>
       </c>
       <c r="Z9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1218,23 +1517,21 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>102.7844346192555</v>
+        <v>102.78443461925551</v>
       </c>
       <c r="Y10">
-        <v>24.67500849807855</v>
+        <v>24.675008498078551</v>
       </c>
       <c r="Z10">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C11">
         <v>40.6</v>
@@ -1267,7 +1564,7 @@
         <v>2.6</v>
       </c>
       <c r="M11">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="N11">
         <v>9.6</v>
@@ -1282,7 +1579,7 @@
         <v>0.2</v>
       </c>
       <c r="R11">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="S11">
         <v>0.5</v>
@@ -1297,23 +1594,21 @@
         <v>28.5</v>
       </c>
       <c r="W11">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="X11">
         <v>109.9652217748866</v>
       </c>
       <c r="Y11">
-        <v>14.23055628575698</v>
+        <v>14.230556285756981</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Burundi</t>
-        </is>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -1337,7 +1632,7 @@
         <v>4.3</v>
       </c>
       <c r="I12">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="J12">
         <v>25.5</v>
@@ -1346,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M12">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -1364,7 +1659,7 @@
         <v>0.1</v>
       </c>
       <c r="R12">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S12">
         <v>0.1</v>
@@ -1376,7 +1671,7 @@
         <v>63.1</v>
       </c>
       <c r="V12">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="W12">
         <v>9.6</v>
@@ -1385,17 +1680,15 @@
         <v>119.0549452983789</v>
       </c>
       <c r="Y12">
-        <v>5.140832762264665</v>
+        <v>5.1408327622646652</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -1413,7 +1706,7 @@
         <v>2.6</v>
       </c>
       <c r="G13">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H13">
         <v>7.3</v>
@@ -1464,20 +1757,18 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>94.92691925897522</v>
+        <v>94.926919258975218</v>
       </c>
       <c r="Y13">
-        <v>16.81749313779832</v>
+        <v>16.817493137798319</v>
       </c>
       <c r="Z13">
         <v>3</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
       </c>
       <c r="B14">
         <v>10.6</v>
@@ -1486,7 +1777,7 @@
         <v>29.9</v>
       </c>
       <c r="D14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1510,7 +1801,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M14">
         <v>78.8</v>
@@ -1534,7 +1825,7 @@
         <v>0.1</v>
       </c>
       <c r="T14">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U14">
         <v>71</v>
@@ -1543,7 +1834,7 @@
         <v>7.5</v>
       </c>
       <c r="W14">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="X14">
         <v>102.3298099284856</v>
@@ -1555,11 +1846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Central African Republic</t>
-        </is>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
       </c>
       <c r="B15">
         <v>14.6</v>
@@ -1583,10 +1872,10 @@
         <v>9.4</v>
       </c>
       <c r="I15">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="J15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1610,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="S15">
         <v>0.6</v>
@@ -1622,26 +1911,24 @@
         <v>15.2</v>
       </c>
       <c r="V15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W15">
         <v>7.5</v>
       </c>
       <c r="X15">
-        <v>79.35250468636765</v>
+        <v>79.352504686367652</v>
       </c>
       <c r="Y15">
-        <v>44.84327337427595</v>
+        <v>44.843273374275952</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16">
         <v>10.3</v>
@@ -1710,20 +1997,18 @@
         <v>11.2</v>
       </c>
       <c r="X16">
-        <v>96.32403646027299</v>
+        <v>96.324036460272993</v>
       </c>
       <c r="Y16">
-        <v>27.87174160037061</v>
+        <v>27.871741600370608</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1756,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="M17">
         <v>92.8</v>
@@ -1780,7 +2065,7 @@
         <v>0.7</v>
       </c>
       <c r="T17">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="U17">
         <v>92.5</v>
@@ -1789,23 +2074,21 @@
         <v>0.2</v>
       </c>
       <c r="W17">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="X17">
-        <v>123.3023114138579</v>
+        <v>123.30231141385789</v>
       </c>
       <c r="Y17">
-        <v>49.98591200209047</v>
+        <v>49.985912002090473</v>
       </c>
       <c r="Z17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Comoros</t>
-        </is>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
       </c>
       <c r="B18">
         <v>22.6</v>
@@ -1823,7 +2106,7 @@
         <v>6.3</v>
       </c>
       <c r="G18">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H18">
         <v>0.8</v>
@@ -1832,10 +2115,10 @@
         <v>20.7</v>
       </c>
       <c r="J18">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K18">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L18">
         <v>13.8</v>
@@ -1874,20 +2157,18 @@
         <v>66</v>
       </c>
       <c r="X18">
-        <v>96.48942947287023</v>
+        <v>96.489429472870228</v>
       </c>
       <c r="Y18">
-        <v>76.79879394307818</v>
+        <v>76.798793943078181</v>
       </c>
       <c r="Z18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -1899,10 +2180,10 @@
         <v>4.2</v>
       </c>
       <c r="E19">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F19">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G19">
         <v>5.2</v>
@@ -1941,7 +2222,7 @@
         <v>24.3</v>
       </c>
       <c r="S19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T19">
         <v>34.6</v>
@@ -1953,35 +2234,33 @@
         <v>13.6</v>
       </c>
       <c r="W19">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="X19">
-        <v>89.98727687845656</v>
+        <v>89.987276878456555</v>
       </c>
       <c r="Y19">
-        <v>34.20850118218705</v>
+        <v>34.208501182187049</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Congo Democratic Republic</t>
-        </is>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D20">
         <v>17.2</v>
       </c>
       <c r="E20">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1990,13 +2269,13 @@
         <v>5.4</v>
       </c>
       <c r="H20">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I20">
         <v>59.3</v>
       </c>
       <c r="J20">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2029,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V20">
         <v>12.1</v>
@@ -2038,20 +2317,18 @@
         <v>7.1</v>
       </c>
       <c r="X20">
-        <v>93.39807278525612</v>
+        <v>93.398072785256119</v>
       </c>
       <c r="Y20">
-        <v>30.79770527538749</v>
+        <v>30.797705275387489</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cote d'Ivoire</t>
-        </is>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
       </c>
       <c r="B21">
         <v>16.2</v>
@@ -2072,7 +2349,7 @@
         <v>13.2</v>
       </c>
       <c r="H21">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I21">
         <v>46.4</v>
@@ -2087,7 +2364,7 @@
         <v>11.2</v>
       </c>
       <c r="M21">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N21">
         <v>20.3</v>
@@ -2108,10 +2385,10 @@
         <v>0.7</v>
       </c>
       <c r="T21">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="U21">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="V21">
         <v>5.3</v>
@@ -2120,7 +2397,7 @@
         <v>44.2</v>
       </c>
       <c r="X21">
-        <v>95.76486829730411</v>
+        <v>95.764868297304105</v>
       </c>
       <c r="Y21">
         <v>28.4309097633395</v>
@@ -2129,11 +2406,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2166,7 +2441,7 @@
         <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M22">
         <v>98.7</v>
@@ -2190,32 +2465,30 @@
         <v>0.5</v>
       </c>
       <c r="T22">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="U22">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="V22">
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="X22">
-        <v>99.56605847375901</v>
+        <v>99.566058473759014</v>
       </c>
       <c r="Y22">
-        <v>73.72216494218939</v>
+        <v>73.722164942189394</v>
       </c>
       <c r="Z22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2248,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="M23">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="N23">
         <v>0.4</v>
@@ -2272,10 +2545,10 @@
         <v>0.4</v>
       </c>
       <c r="T23">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="U23">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="V23">
         <v>0.6</v>
@@ -2284,20 +2557,18 @@
         <v>93.2</v>
       </c>
       <c r="X23">
-        <v>134.7835301511279</v>
+        <v>134.78353015112791</v>
       </c>
       <c r="Y23">
-        <v>38.50469326482053</v>
+        <v>38.504693264820531</v>
       </c>
       <c r="Z23">
         <v>2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
       </c>
       <c r="B24">
         <v>20.8</v>
@@ -2312,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G24">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H24">
         <v>5.4</v>
@@ -2333,7 +2604,7 @@
         <v>16.3</v>
       </c>
       <c r="M24">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2366,23 +2637,21 @@
         <v>27.7</v>
       </c>
       <c r="X24">
-        <v>91.61697440976754</v>
+        <v>91.616974409767536</v>
       </c>
       <c r="Y24">
-        <v>32.57880365087607</v>
+        <v>32.578803650876068</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Eswatini</t>
-        </is>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C25">
         <v>6.9</v>
@@ -2397,7 +2666,7 @@
         <v>4.3</v>
       </c>
       <c r="G25">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H25">
         <v>15.6</v>
@@ -2412,10 +2681,10 @@
         <v>0.5</v>
       </c>
       <c r="L25">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M25">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N25">
         <v>21.3</v>
@@ -2439,7 +2708,7 @@
         <v>42.6</v>
       </c>
       <c r="U25">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="V25">
         <v>4.5</v>
@@ -2448,20 +2717,18 @@
         <v>43</v>
       </c>
       <c r="X25">
-        <v>88.39468309802349</v>
+        <v>88.394683098023492</v>
       </c>
       <c r="Y25">
-        <v>35.80109496262011</v>
+        <v>35.801094962620112</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ethiopia</t>
-        </is>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
       </c>
       <c r="B26">
         <v>17.7</v>
@@ -2479,7 +2746,7 @@
         <v>5.9</v>
       </c>
       <c r="G26">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H26">
         <v>10.7</v>
@@ -2512,7 +2779,7 @@
         <v>0.2</v>
       </c>
       <c r="R26">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="S26">
         <v>0.1</v>
@@ -2533,17 +2800,15 @@
         <v>92.16827002824779</v>
       </c>
       <c r="Y26">
-        <v>32.02750803239582</v>
+        <v>32.027508032395822</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gabon</t>
-        </is>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
       </c>
       <c r="B27">
         <v>20.2</v>
@@ -2579,7 +2844,7 @@
         <v>25.4</v>
       </c>
       <c r="M27">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="N27">
         <v>38.4</v>
@@ -2591,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R27">
         <v>6.7</v>
@@ -2609,29 +2874,27 @@
         <v>7.2</v>
       </c>
       <c r="W27">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="X27">
-        <v>99.9636934091573</v>
+        <v>99.963693409157301</v>
       </c>
       <c r="Y27">
-        <v>73.32453000679111</v>
+        <v>73.324530006791107</v>
       </c>
       <c r="Z27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gambia</t>
-        </is>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2664,7 +2927,7 @@
         <v>91</v>
       </c>
       <c r="N28">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2685,7 +2948,7 @@
         <v>43.7</v>
       </c>
       <c r="U28">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -2697,23 +2960,21 @@
         <v>104.3106418348579</v>
       </c>
       <c r="Y28">
-        <v>19.88513622578573</v>
+        <v>19.885136225785729</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
       </c>
       <c r="B29">
         <v>14.6</v>
       </c>
       <c r="C29">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -2722,13 +2983,13 @@
         <v>0.6</v>
       </c>
       <c r="F29">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G29">
         <v>1.8</v>
       </c>
       <c r="H29">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I29">
         <v>46.3</v>
@@ -2743,7 +3004,7 @@
         <v>2.7</v>
       </c>
       <c r="M29">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="N29">
         <v>5.4</v>
@@ -2755,7 +3016,7 @@
         <v>0.1</v>
       </c>
       <c r="Q29">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R29">
         <v>6.9</v>
@@ -2776,20 +3037,18 @@
         <v>46.6</v>
       </c>
       <c r="X29">
-        <v>106.212334500283</v>
+        <v>106.21233450028301</v>
       </c>
       <c r="Y29">
-        <v>17.98344356036064</v>
+        <v>17.983443560360641</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
       </c>
       <c r="B30">
         <v>1.9</v>
@@ -2813,7 +3072,7 @@
         <v>1.5</v>
       </c>
       <c r="I30">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J30">
         <v>1.2</v>
@@ -2849,7 +3108,7 @@
         <v>82.2</v>
       </c>
       <c r="U30">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="V30">
         <v>0.4</v>
@@ -2861,17 +3120,15 @@
         <v>89.32032243560252</v>
       </c>
       <c r="Y30">
-        <v>83.96790098034589</v>
+        <v>83.967900980345888</v>
       </c>
       <c r="Z30">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
       </c>
       <c r="B31">
         <v>3.9</v>
@@ -2883,13 +3140,13 @@
         <v>2.7</v>
       </c>
       <c r="E31">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F31">
         <v>10.6</v>
       </c>
       <c r="G31">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H31">
         <v>5.9</v>
@@ -2919,7 +3176,7 @@
         <v>0.2</v>
       </c>
       <c r="Q31">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R31">
         <v>20.7</v>
@@ -2934,29 +3191,27 @@
         <v>60.2</v>
       </c>
       <c r="V31">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W31">
         <v>31</v>
       </c>
       <c r="X31">
-        <v>103.2945303489009</v>
+        <v>103.29453034890091</v>
       </c>
       <c r="Y31">
-        <v>20.90124771174274</v>
+        <v>20.901247711742741</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2992,7 +3247,7 @@
         <v>94.8</v>
       </c>
       <c r="N32">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="O32">
         <v>0.1</v>
@@ -3001,7 +3256,7 @@
         <v>0.1</v>
       </c>
       <c r="Q32">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="R32">
         <v>5.2</v>
@@ -3019,23 +3274,21 @@
         <v>0.2</v>
       </c>
       <c r="W32">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="X32">
-        <v>99.87547246446447</v>
+        <v>99.875472464464465</v>
       </c>
       <c r="Y32">
-        <v>73.41275095148394</v>
+        <v>73.412750951483943</v>
       </c>
       <c r="Z32">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
       </c>
       <c r="B33">
         <v>18.8</v>
@@ -3062,7 +3315,7 @@
         <v>66.5</v>
       </c>
       <c r="J33">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3071,10 +3324,10 @@
         <v>1.2</v>
       </c>
       <c r="M33">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O33">
         <v>0.9</v>
@@ -3083,7 +3336,7 @@
         <v>0.3</v>
       </c>
       <c r="Q33">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R33">
         <v>24.4</v>
@@ -3107,17 +3360,15 @@
         <v>104.9334551036989</v>
       </c>
       <c r="Y33">
-        <v>19.26232295694467</v>
+        <v>19.262322956944669</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
       </c>
       <c r="B34">
         <v>0.7</v>
@@ -3168,7 +3419,7 @@
         <v>38.6</v>
       </c>
       <c r="R34">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S34">
         <v>0.9</v>
@@ -3183,7 +3434,7 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="X34">
         <v>100.5375551721843</v>
@@ -3195,17 +3446,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
       </c>
       <c r="B35">
         <v>15.9</v>
       </c>
       <c r="C35">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D35">
         <v>0.3</v>
@@ -3226,13 +3475,13 @@
         <v>31.4</v>
       </c>
       <c r="J35">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K35">
         <v>0.2</v>
       </c>
       <c r="L35">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M35">
         <v>94.5</v>
@@ -3256,7 +3505,7 @@
         <v>0.2</v>
       </c>
       <c r="T35">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="U35">
         <v>92.7</v>
@@ -3271,17 +3520,15 @@
         <v>108.4703185207824</v>
       </c>
       <c r="Y35">
-        <v>64.81790489516597</v>
+        <v>64.817904895165967</v>
       </c>
       <c r="Z35">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
       </c>
       <c r="B36">
         <v>0.6</v>
@@ -3299,7 +3546,7 @@
         <v>16.8</v>
       </c>
       <c r="G36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H36">
         <v>1.7</v>
@@ -3311,16 +3558,16 @@
         <v>0.5</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36">
         <v>7.3</v>
       </c>
       <c r="M36">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="N36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O36">
         <v>0.4</v>
@@ -3350,20 +3597,18 @@
         <v>87.5</v>
       </c>
       <c r="X36">
-        <v>95.50979007410707</v>
+        <v>95.509790074107073</v>
       </c>
       <c r="Y36">
-        <v>77.77843334184134</v>
+        <v>77.778433341841335</v>
       </c>
       <c r="Z36">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3411,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="R37">
         <v>0.2</v>
@@ -3423,7 +3668,7 @@
         <v>99.2</v>
       </c>
       <c r="U37">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="V37">
         <v>0.1</v>
@@ -3441,11 +3686,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
       </c>
       <c r="B38">
         <v>7.6</v>
@@ -3481,10 +3724,10 @@
         <v>49.5</v>
       </c>
       <c r="M38">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="N38">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="O38">
         <v>3</v>
@@ -3505,29 +3748,27 @@
         <v>59.3</v>
       </c>
       <c r="U38">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="V38">
         <v>0.8</v>
       </c>
       <c r="W38">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="X38">
-        <v>93.85563382131092</v>
+        <v>93.855633821310917</v>
       </c>
       <c r="Y38">
-        <v>79.43258959463749</v>
+        <v>79.432589594637491</v>
       </c>
       <c r="Z38">
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
       </c>
       <c r="B39">
         <v>18</v>
@@ -3536,10 +3777,10 @@
         <v>7.3</v>
       </c>
       <c r="D39">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E39">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F39">
         <v>7.9</v>
@@ -3587,7 +3828,7 @@
         <v>45.4</v>
       </c>
       <c r="U39">
-        <v>71.59999999999999</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -3596,20 +3837,18 @@
         <v>47.5</v>
       </c>
       <c r="X39">
-        <v>91.93106112734694</v>
+        <v>91.931061127346936</v>
       </c>
       <c r="Y39">
-        <v>32.26471693329667</v>
+        <v>32.264716933296668</v>
       </c>
       <c r="Z39">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Kyrgyz Republic</t>
-        </is>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
       </c>
       <c r="B40">
         <v>20.8</v>
@@ -3624,13 +3863,13 @@
         <v>1.6</v>
       </c>
       <c r="F40">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G40">
         <v>0.7</v>
       </c>
       <c r="H40">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I40">
         <v>29.9</v>
@@ -3669,7 +3908,7 @@
         <v>66.2</v>
       </c>
       <c r="U40">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="V40">
         <v>0.7</v>
@@ -3678,23 +3917,21 @@
         <v>68.2</v>
       </c>
       <c r="X40">
-        <v>99.45496468251346</v>
+        <v>99.454964682513463</v>
       </c>
       <c r="Y40">
-        <v>73.83325873343495</v>
+        <v>73.833258733434945</v>
       </c>
       <c r="Z40">
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lesotho</t>
-        </is>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C41">
         <v>5.7</v>
@@ -3703,10 +3940,10 @@
         <v>4.2</v>
       </c>
       <c r="E41">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F41">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G41">
         <v>7.1</v>
@@ -3727,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="N41">
         <v>22.6</v>
@@ -3742,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3763,17 +4000,15 @@
         <v>103.0232012703935</v>
       </c>
       <c r="Y41">
-        <v>21.17257679025015</v>
+        <v>21.172576790250151</v>
       </c>
       <c r="Z41">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Liberia</t>
-        </is>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
       </c>
       <c r="B42">
         <v>4.2</v>
@@ -3791,13 +4026,13 @@
         <v>8.6</v>
       </c>
       <c r="G42">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H42">
         <v>11.5</v>
       </c>
       <c r="I42">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="J42">
         <v>3.8</v>
@@ -3842,7 +4077,7 @@
         <v>21.5</v>
       </c>
       <c r="X42">
-        <v>123.5771823598515</v>
+        <v>123.57718235985151</v>
       </c>
       <c r="Y42">
         <v>0.6185957007920706</v>
@@ -3851,11 +4086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
       </c>
       <c r="B43">
         <v>17</v>
@@ -3864,7 +4097,7 @@
         <v>4.2</v>
       </c>
       <c r="D43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E43">
         <v>22</v>
@@ -3927,17 +4160,15 @@
         <v>85.70379221481393</v>
       </c>
       <c r="Y43">
-        <v>38.49198584582967</v>
+        <v>38.491985845829667</v>
       </c>
       <c r="Z43">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
       </c>
       <c r="B44">
         <v>13.6</v>
@@ -3955,7 +4186,7 @@
         <v>5.5</v>
       </c>
       <c r="G44">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H44">
         <v>3.4</v>
@@ -4009,17 +4240,15 @@
         <v>125.4290237544724</v>
       </c>
       <c r="Y44">
-        <v>1.233245693828778</v>
+        <v>1.2332456938287779</v>
       </c>
       <c r="Z44">
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>68</v>
       </c>
       <c r="B45">
         <v>0.1</v>
@@ -4067,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="R45">
         <v>0.3</v>
@@ -4079,7 +4308,7 @@
         <v>96.7</v>
       </c>
       <c r="U45">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="V45">
         <v>0.1</v>
@@ -4088,20 +4317,18 @@
         <v>96.8</v>
       </c>
       <c r="X45">
-        <v>110.9344400986457</v>
+        <v>110.93444009864569</v>
       </c>
       <c r="Y45">
-        <v>62.35378331730276</v>
+        <v>62.353783317302756</v>
       </c>
       <c r="Z45">
         <v>2</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mali</t>
-        </is>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>69</v>
       </c>
       <c r="B46">
         <v>17.3</v>
@@ -4128,7 +4355,7 @@
         <v>61.7</v>
       </c>
       <c r="J46">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K46">
         <v>0.3</v>
@@ -4173,17 +4400,15 @@
         <v>100.5229327069202</v>
       </c>
       <c r="Y46">
-        <v>23.67284535372343</v>
+        <v>23.672845353723432</v>
       </c>
       <c r="Z46">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
       </c>
       <c r="B47">
         <v>27.6</v>
@@ -4210,13 +4435,13 @@
         <v>45.6</v>
       </c>
       <c r="J47">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M47">
         <v>66.5</v>
@@ -4225,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4249,23 +4474,21 @@
         <v>9.1</v>
       </c>
       <c r="W47">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="X47">
-        <v>90.26749137978744</v>
+        <v>90.267491379787444</v>
       </c>
       <c r="Y47">
-        <v>33.92828668085616</v>
+        <v>33.928286680856161</v>
       </c>
       <c r="Z47">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Moldova</t>
-        </is>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>71</v>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -4310,7 +4533,7 @@
         <v>0.3</v>
       </c>
       <c r="P48">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -4334,20 +4557,18 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>110.4194729203142</v>
+        <v>110.41947292031421</v>
       </c>
       <c r="Y48">
-        <v>32.31004679913731</v>
+        <v>32.310046799137311</v>
       </c>
       <c r="Z48">
         <v>3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>72</v>
       </c>
       <c r="B49">
         <v>10.9</v>
@@ -4368,7 +4589,7 @@
         <v>10.7</v>
       </c>
       <c r="H49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4386,7 +4607,7 @@
         <v>79.8</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O49">
         <v>0.9</v>
@@ -4398,7 +4619,7 @@
         <v>0.5</v>
       </c>
       <c r="R49">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="S49">
         <v>0.2</v>
@@ -4416,20 +4637,18 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>99.54004219408388</v>
+        <v>99.540042194083881</v>
       </c>
       <c r="Y49">
-        <v>21.43061607290699</v>
+        <v>21.430616072906989</v>
       </c>
       <c r="Z49">
         <v>3</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>73</v>
       </c>
       <c r="B50">
         <v>15.9</v>
@@ -4444,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G50">
         <v>24.5</v>
       </c>
       <c r="H50">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I50">
         <v>44.4</v>
@@ -4462,10 +4681,10 @@
         <v>1.7</v>
       </c>
       <c r="L50">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M50">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="N50">
         <v>14.2</v>
@@ -4498,20 +4717,18 @@
         <v>34.5</v>
       </c>
       <c r="X50">
-        <v>84.84432803670497</v>
+        <v>84.844328036704965</v>
       </c>
       <c r="Y50">
-        <v>39.35145002393864</v>
+        <v>39.351450023938639</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Myanmar</t>
-        </is>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>74</v>
       </c>
       <c r="B51">
         <v>3.2</v>
@@ -4547,7 +4764,7 @@
         <v>2.1</v>
       </c>
       <c r="M51">
-        <v>82.40000000000001</v>
+        <v>82.4</v>
       </c>
       <c r="N51">
         <v>4.2</v>
@@ -4562,7 +4779,7 @@
         <v>15.5</v>
       </c>
       <c r="R51">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S51">
         <v>0.2</v>
@@ -4583,17 +4800,15 @@
         <v>100.8198393174677</v>
       </c>
       <c r="Y51">
-        <v>23.37593874317592</v>
+        <v>23.375938743175919</v>
       </c>
       <c r="Z51">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
       </c>
       <c r="B52">
         <v>26.1</v>
@@ -4626,7 +4841,7 @@
         <v>0.1</v>
       </c>
       <c r="L52">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M52">
         <v>87.5</v>
@@ -4653,7 +4868,7 @@
         <v>52.7</v>
       </c>
       <c r="U52">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="V52">
         <v>5.3</v>
@@ -4671,14 +4886,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>76</v>
       </c>
       <c r="B53">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C53">
         <v>35.9</v>
@@ -4738,26 +4951,24 @@
         <v>94.8</v>
       </c>
       <c r="V53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W53">
-        <v>69.09999999999999</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="X53">
         <v>106.7894189515047</v>
       </c>
       <c r="Y53">
-        <v>66.49880446444367</v>
+        <v>66.498804464443666</v>
       </c>
       <c r="Z53">
         <v>2</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>77</v>
       </c>
       <c r="B54">
         <v>3.2</v>
@@ -4823,23 +5034,21 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="X54">
-        <v>80.20293012103736</v>
+        <v>80.202930121037355</v>
       </c>
       <c r="Y54">
-        <v>93.08529329491105</v>
+        <v>93.085293294911054</v>
       </c>
       <c r="Z54">
         <v>2</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>78</v>
       </c>
       <c r="B55">
         <v>24.5</v>
@@ -4854,7 +5063,7 @@
         <v>0.6</v>
       </c>
       <c r="F55">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G55">
         <v>31</v>
@@ -4866,7 +5075,7 @@
         <v>54.4</v>
       </c>
       <c r="J55">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -4875,7 +5084,7 @@
         <v>2.7</v>
       </c>
       <c r="M55">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="N55">
         <v>4.5</v>
@@ -4911,23 +5120,21 @@
         <v>100.8429967821266</v>
       </c>
       <c r="Y55">
-        <v>23.35278127851699</v>
+        <v>23.352781278516989</v>
       </c>
       <c r="Z55">
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>79</v>
       </c>
       <c r="B56">
         <v>7.5</v>
       </c>
       <c r="C56">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D56">
         <v>0.5</v>
@@ -4957,7 +5164,7 @@
         <v>1.7</v>
       </c>
       <c r="M56">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="N56">
         <v>1.4</v>
@@ -4993,17 +5200,15 @@
         <v>105.2004277557844</v>
       </c>
       <c r="Y56">
-        <v>18.99535030485926</v>
+        <v>18.995350304859262</v>
       </c>
       <c r="Z56">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>80</v>
       </c>
       <c r="B57">
         <v>6.5</v>
@@ -5030,13 +5235,13 @@
         <v>20.5</v>
       </c>
       <c r="J57">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K57">
         <v>0.1</v>
       </c>
       <c r="L57">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M57">
         <v>96</v>
@@ -5060,10 +5265,10 @@
         <v>0.1</v>
       </c>
       <c r="T57">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="U57">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="V57">
         <v>3.7</v>
@@ -5075,17 +5280,15 @@
         <v>114.2691996996566</v>
       </c>
       <c r="Y57">
-        <v>59.01902371629181</v>
+        <v>59.019023716291812</v>
       </c>
       <c r="Z57">
         <v>2</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
       </c>
       <c r="B58">
         <v>4.2</v>
@@ -5148,26 +5351,24 @@
         <v>42.7</v>
       </c>
       <c r="V58">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W58">
         <v>35</v>
       </c>
       <c r="X58">
-        <v>79.05883884803774</v>
+        <v>79.058838848037738</v>
       </c>
       <c r="Y58">
-        <v>45.13693921260587</v>
+        <v>45.136939212605867</v>
       </c>
       <c r="Z58">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5239,17 +5440,15 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>78.1094261211769</v>
+        <v>78.109426121176895</v>
       </c>
       <c r="Z59">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
       </c>
       <c r="B60">
         <v>2.4</v>
@@ -5273,7 +5472,7 @@
         <v>2.9</v>
       </c>
       <c r="I60">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -5285,7 +5484,7 @@
         <v>71.7</v>
       </c>
       <c r="M60">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="N60">
         <v>4.8</v>
@@ -5303,10 +5502,10 @@
         <v>14.1</v>
       </c>
       <c r="S60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T60">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="U60">
         <v>85.2</v>
@@ -5315,23 +5514,21 @@
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="X60">
         <v>113.6449294953365</v>
       </c>
       <c r="Y60">
-        <v>59.64329392061192</v>
+        <v>59.643293920611917</v>
       </c>
       <c r="Z60">
         <v>2</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>84</v>
       </c>
       <c r="B61">
         <v>3.2</v>
@@ -5340,7 +5537,7 @@
         <v>12.4</v>
       </c>
       <c r="D61">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E61">
         <v>1.7</v>
@@ -5364,7 +5561,7 @@
         <v>0.4</v>
       </c>
       <c r="L61">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M61">
         <v>96.5</v>
@@ -5388,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="U61">
         <v>95.2</v>
       </c>
       <c r="V61">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W61">
         <v>81.5</v>
@@ -5403,17 +5600,15 @@
         <v>100.9887617509988</v>
       </c>
       <c r="Y61">
-        <v>72.2994616649496</v>
+        <v>72.299461664949604</v>
       </c>
       <c r="Z61">
         <v>2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
       </c>
       <c r="B62">
         <v>28.6</v>
@@ -5422,13 +5617,13 @@
         <v>1.2</v>
       </c>
       <c r="D62">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E62">
         <v>13.9</v>
       </c>
       <c r="F62">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G62">
         <v>0.9</v>
@@ -5443,7 +5638,7 @@
         <v>27</v>
       </c>
       <c r="K62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L62">
         <v>0.3</v>
@@ -5461,7 +5656,7 @@
         <v>0.4</v>
       </c>
       <c r="Q62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R62">
         <v>20.7</v>
@@ -5476,7 +5671,7 @@
         <v>60.5</v>
       </c>
       <c r="V62">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="W62">
         <v>14.1</v>
@@ -5491,11 +5686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>86</v>
       </c>
       <c r="B63">
         <v>57.7</v>
@@ -5573,11 +5766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
       </c>
       <c r="B64">
         <v>7.7</v>
@@ -5613,7 +5804,7 @@
         <v>22.1</v>
       </c>
       <c r="M64">
-        <v>85.59999999999999</v>
+        <v>85.6</v>
       </c>
       <c r="N64">
         <v>35.1</v>
@@ -5634,7 +5825,7 @@
         <v>0.3</v>
       </c>
       <c r="T64">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="U64">
         <v>82.2</v>
@@ -5646,20 +5837,18 @@
         <v>75</v>
       </c>
       <c r="X64">
-        <v>91.67087869110888</v>
+        <v>91.670878691108882</v>
       </c>
       <c r="Y64">
-        <v>81.61734472483953</v>
+        <v>81.617344724839526</v>
       </c>
       <c r="Z64">
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
       </c>
       <c r="B65">
         <v>16.2</v>
@@ -5731,17 +5920,15 @@
         <v>101.9696033139288</v>
       </c>
       <c r="Y65">
-        <v>22.2261747467148</v>
+        <v>22.226174746714801</v>
       </c>
       <c r="Z65">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
       </c>
       <c r="B66">
         <v>14.1</v>
@@ -5762,10 +5949,10 @@
         <v>1.3</v>
       </c>
       <c r="H66">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I66">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -5813,23 +6000,21 @@
         <v>106.8705759318251</v>
       </c>
       <c r="Y66">
-        <v>66.41764748412328</v>
+        <v>66.417647484123279</v>
       </c>
       <c r="Z66">
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
       </c>
       <c r="B67">
         <v>13.8</v>
       </c>
       <c r="C67">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D67">
         <v>1.2</v>
@@ -5850,7 +6035,7 @@
         <v>21.6</v>
       </c>
       <c r="J67">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K67">
         <v>0.1</v>
@@ -5892,20 +6077,18 @@
         <v>75.3</v>
       </c>
       <c r="X67">
-        <v>93.49486616921809</v>
+        <v>93.494866169218085</v>
       </c>
       <c r="Y67">
-        <v>79.79335724673032</v>
+        <v>79.793357246730324</v>
       </c>
       <c r="Z67">
         <v>2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>91</v>
       </c>
       <c r="B68">
         <v>17.2</v>
@@ -5914,7 +6097,7 @@
         <v>1.9</v>
       </c>
       <c r="D68">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E68">
         <v>6.7</v>
@@ -5929,7 +6112,7 @@
         <v>10.3</v>
       </c>
       <c r="I68">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J68">
         <v>22</v>
@@ -5953,7 +6136,7 @@
         <v>0.6</v>
       </c>
       <c r="Q68">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R68">
         <v>34.5</v>
@@ -5968,26 +6151,24 @@
         <v>57</v>
       </c>
       <c r="V68">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="W68">
         <v>40.9</v>
       </c>
       <c r="X68">
-        <v>82.00018292662523</v>
+        <v>82.000182926625229</v>
       </c>
       <c r="Y68">
-        <v>42.19559513401838</v>
+        <v>42.195595134018383</v>
       </c>
       <c r="Z68">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
       </c>
       <c r="B69">
         <v>23.6</v>
@@ -6023,10 +6204,10 @@
         <v>22.8</v>
       </c>
       <c r="M69">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="N69">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O69">
         <v>0.8</v>
@@ -6038,7 +6219,7 @@
         <v>5.3</v>
       </c>
       <c r="R69">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -6053,23 +6234,21 @@
         <v>3.2</v>
       </c>
       <c r="W69">
-        <v>65.90000000000001</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="X69">
         <v>88.72598266573327</v>
       </c>
       <c r="Y69">
-        <v>84.56224075021514</v>
+        <v>84.562240750215139</v>
       </c>
       <c r="Z69">
         <v>2</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>93</v>
       </c>
       <c r="B70">
         <v>16</v>
@@ -6096,7 +6275,7 @@
         <v>62.5</v>
       </c>
       <c r="J70">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K70">
         <v>0.9</v>
@@ -6105,10 +6284,10 @@
         <v>1.9</v>
       </c>
       <c r="M70">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="N70">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O70">
         <v>0.1</v>
@@ -6129,7 +6308,7 @@
         <v>22.8</v>
       </c>
       <c r="U70">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="V70">
         <v>2.9</v>
@@ -6141,23 +6320,21 @@
         <v>102.3654238500481</v>
       </c>
       <c r="Y70">
-        <v>21.83035421059549</v>
+        <v>21.830354210595491</v>
       </c>
       <c r="Z70">
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>94</v>
       </c>
       <c r="B71">
         <v>1.7</v>
       </c>
       <c r="C71">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D71">
         <v>7.6</v>
@@ -6199,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="R71">
         <v>0.8</v>
@@ -6223,17 +6400,15 @@
         <v>111.4635366386694</v>
       </c>
       <c r="Y71">
-        <v>61.82468677727898</v>
+        <v>61.824686777278977</v>
       </c>
       <c r="Z71">
         <v>2</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>95</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -6260,7 +6435,7 @@
         <v>14.9</v>
       </c>
       <c r="J72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6269,7 +6444,7 @@
         <v>25.7</v>
       </c>
       <c r="M72">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="N72">
         <v>29.5</v>
@@ -6299,10 +6474,10 @@
         <v>0.8</v>
       </c>
       <c r="W72">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="X72">
-        <v>72.47703084426127</v>
+        <v>72.477030844261265</v>
       </c>
       <c r="Y72">
         <v>100.8111925716871</v>
@@ -6311,11 +6486,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
       </c>
       <c r="B73">
         <v>8.6</v>
@@ -6345,7 +6518,7 @@
         <v>29.5</v>
       </c>
       <c r="K73">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L73">
         <v>2.5</v>
@@ -6372,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="U73">
         <v>54.3</v>
@@ -6384,20 +6557,18 @@
         <v>20.2</v>
       </c>
       <c r="X73">
-        <v>105.7048721677483</v>
+        <v>105.70487216774831</v>
       </c>
       <c r="Y73">
-        <v>18.49090589289534</v>
+        <v>18.490905892895341</v>
       </c>
       <c r="Z73">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -6445,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R74">
         <v>1.2</v>
@@ -6469,17 +6640,15 @@
         <v>115.5593786760728</v>
       </c>
       <c r="Y74">
-        <v>37.44995255489594</v>
+        <v>37.449952554895937</v>
       </c>
       <c r="Z74">
         <v>3</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>98</v>
       </c>
       <c r="B75">
         <v>18</v>
@@ -6506,7 +6675,7 @@
         <v>24.5</v>
       </c>
       <c r="J75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K75">
         <v>0.2</v>
@@ -6515,13 +6684,13 @@
         <v>59.7</v>
       </c>
       <c r="M75">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -6530,7 +6699,7 @@
         <v>0.3</v>
       </c>
       <c r="R75">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -6551,17 +6720,15 @@
         <v>103.3324247271881</v>
       </c>
       <c r="Y75">
-        <v>69.9557986887603</v>
+        <v>69.955798688760296</v>
       </c>
       <c r="Z75">
         <v>2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>99</v>
       </c>
       <c r="B76">
         <v>1.4</v>
@@ -6600,7 +6767,7 @@
         <v>34.4</v>
       </c>
       <c r="N76">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="O76">
         <v>0.6</v>
@@ -6612,7 +6779,7 @@
         <v>0.1</v>
       </c>
       <c r="R76">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="S76">
         <v>0.1</v>
@@ -6630,20 +6797,18 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>36.89227561428002</v>
+        <v>36.892275614280017</v>
       </c>
       <c r="Y76">
-        <v>41.21715050689688</v>
+        <v>41.217150506896878</v>
       </c>
       <c r="Z76">
         <v>3</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>100</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -6652,7 +6817,7 @@
         <v>13.9</v>
       </c>
       <c r="D77">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6670,7 +6835,7 @@
         <v>3.2</v>
       </c>
       <c r="J77">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -6700,7 +6865,7 @@
         <v>0.8</v>
       </c>
       <c r="T77">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="U77">
         <v>69.2</v>
@@ -6712,23 +6877,21 @@
         <v>87.8</v>
       </c>
       <c r="X77">
-        <v>76.13625943005081</v>
+        <v>76.136259430050814</v>
       </c>
       <c r="Y77">
-        <v>97.1519639858976</v>
+        <v>97.151963985897595</v>
       </c>
       <c r="Z77">
         <v>2</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>101</v>
       </c>
       <c r="B78">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C78">
         <v>23.9</v>
@@ -6794,20 +6957,18 @@
         <v>36.5</v>
       </c>
       <c r="X78">
-        <v>96.17016169269968</v>
+        <v>96.170161692699679</v>
       </c>
       <c r="Y78">
-        <v>28.02561636794393</v>
+        <v>28.025616367943929</v>
       </c>
       <c r="Z78">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>102</v>
       </c>
       <c r="B79">
         <v>5.5</v>
@@ -6843,10 +7004,10 @@
         <v>14.1</v>
       </c>
       <c r="M79">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N79">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O79">
         <v>0.2</v>
@@ -6864,7 +7025,7 @@
         <v>0.1</v>
       </c>
       <c r="T79">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="U79">
         <v>67.8</v>
@@ -6879,7 +7040,7 @@
         <v>100.0925072120786</v>
       </c>
       <c r="Y79">
-        <v>24.10327084856503</v>
+        <v>24.103270848565032</v>
       </c>
       <c r="Z79">
         <v>1</v>
